--- a/server/src/main/resources/templates/template-menu.xlsx
+++ b/server/src/main/resources/templates/template-menu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\goudong-java\authentication\server\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3253D18C-723F-4C9C-B27C-35A983E2168F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982BDB41-FB12-41EB-BB1F-8FF0F392B488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
@@ -163,6 +163,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>上级菜单标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>注意：表头携带“</t>
     </r>
@@ -186,17 +190,168 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>”表示该列必传。
-1、菜单标识：同一应用下菜单标识唯一，例如系统管理使用”sys“,系统管理&gt;用户管理使用”sys:user“；
-2、上级菜单标识：上级菜单的权限标识。如果上级权限标识为空，表明是一级菜单；如果不为空，那么上级菜单要么存在，要么应该在本行上面；
-3、菜单名称：菜单的名称；
-4、菜单类型：菜单类型分为菜单、按钮和接口，其中菜单和按钮是前端页面权限，接口是用于后端接口权限（注意：按钮也可以填写接口的地址和请求方式，同时满足前端权限和后端接口权限限制）。
-5、路由或接口地址：菜单的前端组件路由或接口的请求地址，请求地址使用</t>
+      <t xml:space="preserve">”表示该列必传。
+</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>菜单标识：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">同一应用下菜单标识唯一，例如系统管理使用”sys“,系统管理&gt;用户管理使用”sys:user“；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 上级菜单标识：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">上级菜单的权限标识。如果上级权限标识为空，表明是一级菜单；如果不为空，那么上级菜单要么存在，要么应该在本行上面；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>菜单名称：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">菜单的名称；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>菜单类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">菜单类型分为菜单、按钮和接口，其中菜单和按钮是前端页面权限，接口是用于后端接口权限（注意：按钮也可以填写接口的地址和请求方式，同时满足前端权限和后端接口权限限制）。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 路由或接口地址：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>菜单的前端组件路由或接口的请求地址，请求地址使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -214,14 +369,56 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>；
-6、请求方式：只有填写接口地址时才需要填写请求方式；
-7、菜单元数据：菜单类型的菜单元数据，是一个json字符串，包含title,icon等信息，例如："{"icon": "el-icon-s-tools", "title": "系统管理"}"；</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级菜单标识</t>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 请求方式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">只有填写接口地址时才需要填写请求方式；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 菜单元数据：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>菜单类型的菜单元数据，是一个json字符串，包含title,icon等信息，例如："{"icon": "el-icon-s-tools", "title": "系统管理"}"；</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +478,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -675,7 +881,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -708,7 +914,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>

--- a/server/src/main/resources/templates/template-menu.xlsx
+++ b/server/src/main/resources/templates/template-menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982BDB41-FB12-41EB-BB1F-8FF0F392B488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055C7E45-BE0A-4386-AD6D-3DC2EEA4F8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="3270" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -881,7 +881,8 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1006,13 +1007,30 @@
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3:D1048576" xr:uid="{8009B86C-AF73-4B93-BB29-E602D0DDED50}">
+  <dataValidations count="7">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="菜单标识填写错误" error="长度范围1~64位" promptTitle="菜单标识" prompt="必填，且标识长度范围1~64位" sqref="A2:A1048576" xr:uid="{AE319053-0688-4DC5-9620-83922DB11F00}">
+      <formula1>1</formula1>
+      <formula2>64</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="上级菜单标识填写错误" error="标识长度范围0~64位" promptTitle="上级菜单标识" prompt="选填，标识长度范围0~64位" sqref="B2:B1048576" xr:uid="{5CEBD168-35C6-4C5A-B407-08175BBC032D}">
+      <formula1>0</formula1>
+      <formula2>64</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="菜单名称填写错误" error="长度范围1~64位" promptTitle="菜单名称" prompt="必填，长度范围1~64位" sqref="C2:C1048576" xr:uid="{0DEDA726-3B07-4B06-9EDC-EFBE1201EDA9}">
+      <formula1>1</formula1>
+      <formula2>64</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="菜单类型" prompt="必填" sqref="D2:D1048576" xr:uid="{DE9D22B1-6037-4A22-9AA8-DDC0ACFC3D32}">
       <formula1>"菜单,按钮,接口"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576" xr:uid="{1C015A6C-2BC7-419E-8D55-8F1ECE9B3EEF}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="路由或接口地址填写错误" error="长度范围是0~255" promptTitle="路由或接口地址" prompt="选填" sqref="E2:E1048576" xr:uid="{4F006628-C167-476F-9ED2-E50A9807EBE6}">
+      <formula1>0</formula1>
+      <formula2>255</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="请求方式" prompt="选填，只有是接口地址时才必填" sqref="F2:F1048576" xr:uid="{B20C5A94-0940-4886-B235-D31B1504BC04}">
       <formula1>"GET,POST,PUT,DELETE,HEAD,PATCH,OPTIONS,TRACE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="菜单元数据" prompt="选填，填写JSON格式字符串" sqref="G2:G1048576" xr:uid="{882DDDA5-0C49-41E9-BC4C-4DBC309DAC6B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/src/main/resources/templates/template-menu.xlsx
+++ b/server/src/main/resources/templates/template-menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055C7E45-BE0A-4386-AD6D-3DC2EEA4F8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFE5928-9921-4888-8B90-37170E6463C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="5145" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,29 +1008,29 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="菜单标识填写错误" error="长度范围1~64位" promptTitle="菜单标识" prompt="必填，且标识长度范围1~64位" sqref="A2:A1048576" xr:uid="{AE319053-0688-4DC5-9620-83922DB11F00}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="菜单标识填写错误" error="长度范围1~64位" promptTitle="菜单标识" prompt="必填，且标识长度范围1~64位" sqref="A3:A1048576" xr:uid="{AE319053-0688-4DC5-9620-83922DB11F00}">
       <formula1>1</formula1>
       <formula2>64</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="上级菜单标识填写错误" error="标识长度范围0~64位" promptTitle="上级菜单标识" prompt="选填，标识长度范围0~64位" sqref="B2:B1048576" xr:uid="{5CEBD168-35C6-4C5A-B407-08175BBC032D}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="上级菜单标识填写错误" error="标识长度范围0~64位" promptTitle="上级菜单标识" prompt="选填，标识长度范围0~64位" sqref="B3:B1048576" xr:uid="{5CEBD168-35C6-4C5A-B407-08175BBC032D}">
       <formula1>0</formula1>
       <formula2>64</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="菜单名称填写错误" error="长度范围1~64位" promptTitle="菜单名称" prompt="必填，长度范围1~64位" sqref="C2:C1048576" xr:uid="{0DEDA726-3B07-4B06-9EDC-EFBE1201EDA9}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="菜单名称填写错误" error="长度范围1~64位" promptTitle="菜单名称" prompt="必填，长度范围1~64位" sqref="C3:C1048576" xr:uid="{0DEDA726-3B07-4B06-9EDC-EFBE1201EDA9}">
       <formula1>1</formula1>
       <formula2>64</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="菜单类型" prompt="必填" sqref="D2:D1048576" xr:uid="{DE9D22B1-6037-4A22-9AA8-DDC0ACFC3D32}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="菜单类型" prompt="必填" sqref="D3:D1048576" xr:uid="{DE9D22B1-6037-4A22-9AA8-DDC0ACFC3D32}">
       <formula1>"菜单,按钮,接口"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="路由或接口地址填写错误" error="长度范围是0~255" promptTitle="路由或接口地址" prompt="选填" sqref="E2:E1048576" xr:uid="{4F006628-C167-476F-9ED2-E50A9807EBE6}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="路由或接口地址填写错误" error="长度范围是0~255" promptTitle="路由或接口地址" prompt="选填" sqref="E3:E1048576" xr:uid="{4F006628-C167-476F-9ED2-E50A9807EBE6}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="请求方式" prompt="选填，只有是接口地址时才必填" sqref="F2:F1048576" xr:uid="{B20C5A94-0940-4886-B235-D31B1504BC04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="请求方式" prompt="选填，只有是接口地址时才必填" sqref="F3:F1048576" xr:uid="{B20C5A94-0940-4886-B235-D31B1504BC04}">
       <formula1>"GET,POST,PUT,DELETE,HEAD,PATCH,OPTIONS,TRACE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="菜单元数据" prompt="选填，填写JSON格式字符串" sqref="G2:G1048576" xr:uid="{882DDDA5-0C49-41E9-BC4C-4DBC309DAC6B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="菜单元数据" prompt="选填，填写JSON格式字符串" sqref="G3:G1048576" xr:uid="{882DDDA5-0C49-41E9-BC4C-4DBC309DAC6B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
